--- a/Test data/User_Situation.xlsx
+++ b/Test data/User_Situation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yunhyuck\Desktop\music_reco\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A16FF2-03C8-4321-B99A-B2941D751E63}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F38A3C0-2CE1-4951-A046-401F27768326}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{14D1FDFE-2010-41FD-9B68-D5AD3D2A8291}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="115">
   <si>
     <t>UserID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,194 @@
     <t>취미</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>회식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>취침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산책</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음식점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저녁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.07.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.07.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하교길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하교길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낮잠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋살장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풋살장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등교길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴근길</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019.06.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -372,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,11 +597,214 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="52">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1044,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D429806-2E59-4C83-B92A-3A65B3FBB4AE}">
-  <dimension ref="A1:G231"/>
+  <dimension ref="A1:G444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L223" sqref="L223"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M384" sqref="M384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5360,6 +5751,9 @@
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A216" s="8">
+        <v>5</v>
+      </c>
       <c r="B216" s="3" t="s">
         <v>11</v>
       </c>
@@ -5377,6 +5771,9 @@
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A217" s="8">
+        <v>5</v>
+      </c>
       <c r="B217" s="3" t="s">
         <v>11</v>
       </c>
@@ -5394,6 +5791,9 @@
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A218" s="8">
+        <v>5</v>
+      </c>
       <c r="B218" s="3" t="s">
         <v>11</v>
       </c>
@@ -5411,6 +5811,9 @@
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A219" s="8">
+        <v>5</v>
+      </c>
       <c r="B219" s="3" t="s">
         <v>11</v>
       </c>
@@ -5428,6 +5831,9 @@
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A220" s="8">
+        <v>5</v>
+      </c>
       <c r="B220" s="3" t="s">
         <v>11</v>
       </c>
@@ -5445,6 +5851,9 @@
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A221" s="8">
+        <v>5</v>
+      </c>
       <c r="B221" s="3" t="s">
         <v>11</v>
       </c>
@@ -5462,6 +5871,9 @@
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A222" s="8">
+        <v>5</v>
+      </c>
       <c r="B222" s="3" t="s">
         <v>11</v>
       </c>
@@ -5479,6 +5891,9 @@
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A223" s="8">
+        <v>5</v>
+      </c>
       <c r="B223" s="3" t="s">
         <v>11</v>
       </c>
@@ -5496,6 +5911,9 @@
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A224" s="8">
+        <v>5</v>
+      </c>
       <c r="B224" s="3" t="s">
         <v>45</v>
       </c>
@@ -5512,7 +5930,10 @@
         <v>0.27083333333333331</v>
       </c>
     </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A225" s="8">
+        <v>5</v>
+      </c>
       <c r="B225" s="3" t="s">
         <v>45</v>
       </c>
@@ -5529,7 +5950,10 @@
         <v>0.3125</v>
       </c>
     </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A226" s="8">
+        <v>5</v>
+      </c>
       <c r="B226" s="3" t="s">
         <v>45</v>
       </c>
@@ -5546,7 +5970,10 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A227" s="8">
+        <v>5</v>
+      </c>
       <c r="B227" s="3" t="s">
         <v>45</v>
       </c>
@@ -5563,7 +5990,10 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A228" s="8">
+        <v>5</v>
+      </c>
       <c r="B228" s="3" t="s">
         <v>45</v>
       </c>
@@ -5580,7 +6010,10 @@
         <v>0.52777777777777779</v>
       </c>
     </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A229" s="8">
+        <v>5</v>
+      </c>
       <c r="B229" s="3" t="s">
         <v>45</v>
       </c>
@@ -5597,7 +6030,10 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A230" s="8">
+        <v>5</v>
+      </c>
       <c r="B230" s="3" t="s">
         <v>45</v>
       </c>
@@ -5611,120 +6047,4440 @@
         <v>10</v>
       </c>
       <c r="F230" s="4">
-        <v>0.79166666666666663</v>
-      </c>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.45">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A231" s="8">
+        <v>5</v>
+      </c>
       <c r="B231" s="3" t="s">
         <v>45</v>
       </c>
       <c r="C231" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231" s="4">
+        <v>0.82638888888888884</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A232" s="8">
+        <v>5</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C232" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D231" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F231" s="1">
-        <v>0.97916666666666663</v>
+      <c r="D232" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232" s="1">
+        <v>0.94444444444444453</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A233" s="8">
+        <v>5</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233" s="4">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A234" s="8">
+        <v>5</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" s="4">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A235" s="8">
+        <v>5</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A236" s="8">
+        <v>5</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F236" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A237" s="8">
+        <v>5</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A238" s="8">
+        <v>5</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A239" s="8">
+        <v>5</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F239" s="4">
+        <v>0.80555555555555547</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A240" s="8">
+        <v>5</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A241" s="8">
+        <v>5</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241" s="1">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A242" s="8">
+        <v>5</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F242" s="1">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A243" s="8">
+        <v>5</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F243" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A244" s="8">
+        <v>5</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F244" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A245" s="8">
+        <v>5</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F245" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A246" s="8">
+        <v>5</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F246" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A247" s="8">
+        <v>5</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F247" s="1">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A248" s="8">
+        <v>5</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F248" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A249" s="8">
+        <v>5</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F249" s="1">
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A250" s="8">
+        <v>5</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F250" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A251" s="8">
+        <v>5</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F251" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A252" s="8">
+        <v>5</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F252" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A253" s="8">
+        <v>5</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F253" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A254" s="8">
+        <v>5</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F254" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A255" s="8">
+        <v>5</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F255" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A256" s="8">
+        <v>5</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F256" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A257" s="8">
+        <v>5</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257" s="4">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A258" s="8">
+        <v>5</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F258" s="4">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A259" s="8">
+        <v>5</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F259" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A260" s="8">
+        <v>5</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F260" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A261" s="8">
+        <v>5</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A262" s="8">
+        <v>5</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F262" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A263" s="8">
+        <v>5</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A264" s="8">
+        <v>5</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A265" s="8">
+        <v>5</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F265" s="1">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A266" s="8">
+        <v>5</v>
+      </c>
+      <c r="B266" t="s">
+        <v>91</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" s="4">
+        <v>0.27083333333333331</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A267" s="8">
+        <v>5</v>
+      </c>
+      <c r="B267" t="s">
+        <v>91</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F267" s="4">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A268" s="8">
+        <v>5</v>
+      </c>
+      <c r="B268" t="s">
+        <v>91</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F268" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A269" s="8">
+        <v>5</v>
+      </c>
+      <c r="B269" t="s">
+        <v>91</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F269" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A270" s="8">
+        <v>5</v>
+      </c>
+      <c r="B270" t="s">
+        <v>91</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" s="4">
+        <v>0.52777777777777779</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A271" s="8">
+        <v>5</v>
+      </c>
+      <c r="B271" t="s">
+        <v>91</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A272" s="8">
+        <v>5</v>
+      </c>
+      <c r="B272" t="s">
+        <v>91</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" s="4">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A273" s="8">
+        <v>5</v>
+      </c>
+      <c r="B273" t="s">
+        <v>91</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F273" s="4">
+        <v>0.83680555555555547</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A274" s="7">
+        <v>5</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C274" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E274" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" s="10">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A275" s="8">
+        <v>6</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" s="4">
+        <v>0.25694444444444448</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A276" s="8">
+        <v>6</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" s="4">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A277" s="8">
+        <v>6</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A278" s="8">
+        <v>6</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A279" s="8">
+        <v>6</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F279" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A280" s="8">
+        <v>6</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F280" s="4">
+        <v>0.78472222222222221</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A281" s="8">
+        <v>6</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F281" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A282" s="8">
+        <v>6</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F282" s="4">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A283" s="8">
+        <v>6</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F283" s="1">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A284" s="8">
+        <v>6</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284" s="4">
+        <v>0.26041666666666669</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A285" s="8">
+        <v>6</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" s="4">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A286" s="8">
+        <v>6</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A287" s="8">
+        <v>6</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F287" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A288" s="8">
+        <v>6</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A289" s="8">
+        <v>6</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" s="4">
+        <v>0.78472222222222221</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A290" s="8">
+        <v>6</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F290" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A291" s="8">
+        <v>6</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F291" s="4">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A292" s="8">
+        <v>6</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F292" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A293" s="8">
+        <v>6</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F293" s="4">
+        <v>0.25694444444444448</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A294" s="8">
+        <v>6</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F294" s="4">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A295" s="8">
+        <v>6</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F295" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A296" s="8">
+        <v>6</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D296" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F296" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A297" s="8">
+        <v>6</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F297" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A298" s="8">
+        <v>6</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D298" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F298" s="4">
+        <v>0.78472222222222221</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A299" s="8">
+        <v>6</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D299" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F299" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A300" s="8">
+        <v>6</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D300" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F300" s="4">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A301" s="8">
+        <v>6</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F301" s="1">
+        <v>6.5972222222222224E-2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A302" s="8">
+        <v>6</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D302" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F302" s="4">
+        <v>0.25694444444444448</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A303" s="8">
+        <v>6</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D303" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F303" s="4">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A304" s="8">
+        <v>6</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D304" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F304" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A305" s="8">
+        <v>6</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F305" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A306" s="8">
+        <v>6</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D306" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306" s="1">
+        <v>0.84027777777777779</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A307" s="8">
+        <v>6</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D307" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A308" s="8">
+        <v>6</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D308" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F308" s="4">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A309" s="8">
+        <v>6</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D309" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F309" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A310" s="8">
+        <v>6</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F310" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A311" s="8">
+        <v>6</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D311" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F311" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A312" s="8">
+        <v>6</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C312" t="s">
+        <v>72</v>
+      </c>
+      <c r="D312" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F312" s="1">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A313" s="8">
+        <v>6</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F313" s="4">
+        <v>0.26041666666666669</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A314" s="8">
+        <v>6</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D314" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F314" s="4">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A315" s="8">
+        <v>6</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D315" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F315" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A316" s="8">
+        <v>6</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D316" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F316" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A317" s="8">
+        <v>6</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D317" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F317" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A318" s="8">
+        <v>6</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D318" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" s="4">
+        <v>0.78472222222222221</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A319" s="8">
+        <v>6</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D319" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A320" s="8">
+        <v>6</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D320" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F320" s="4">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A321" s="8">
+        <v>6</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D321" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F321" s="1">
+        <v>6.9444444444444434E-2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A322" s="8">
+        <v>6</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D322" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322" s="4">
+        <v>0.26041666666666669</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A323" s="8">
+        <v>6</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D323" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F323" s="4">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A324" s="8">
+        <v>6</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D324" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F324" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A325" s="8">
+        <v>6</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D325" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F325" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A326" s="8">
+        <v>6</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D326" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F326" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A327" s="8">
+        <v>6</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D327" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F327" s="4">
+        <v>0.78472222222222221</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A328" s="8">
+        <v>6</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D328" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" s="4">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A329" s="8">
+        <v>6</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D329" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F329" s="4">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A330" s="7">
+        <v>6</v>
+      </c>
+      <c r="B330" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C330" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D330" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E330" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F330" s="10">
+        <v>6.9444444444444434E-2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A331" s="8">
+        <v>7</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D331" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F331" s="4">
+        <v>0.31597222222222221</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A332" s="8">
+        <v>7</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D332" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F332" s="4">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A333" s="8">
+        <v>7</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D333" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F333" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A334" s="8">
+        <v>7</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D334" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F334" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A335" s="8">
+        <v>7</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D335" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F335" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A336" s="8">
+        <v>7</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D336" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F336" s="4">
+        <v>0.72569444444444453</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A337" s="8">
+        <v>7</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D337" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F337" s="4">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A338" s="8">
+        <v>7</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D338" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F338" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A339" s="8">
+        <v>7</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D339" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F339" s="1">
+        <v>0.95833333333333337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A340" s="8">
+        <v>7</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D340" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F340" s="4">
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A341" s="8">
+        <v>7</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D341" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F341" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A342" s="8">
+        <v>7</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D342" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F342" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A343" s="8">
+        <v>7</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F343" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A344" s="8">
+        <v>7</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D344" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F344" s="1">
+        <v>0.96527777777777779</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A345" s="8">
+        <v>7</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F345" s="1">
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A346" s="8">
+        <v>7</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F346" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A347" s="8">
+        <v>7</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F347" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A348" s="8">
+        <v>7</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D348" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F348" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A349" s="8">
+        <v>7</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F349" s="1">
+        <v>0.95138888888888884</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A350" s="8">
+        <v>7</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F350" s="4">
+        <v>0.31597222222222221</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A351" s="8">
+        <v>7</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F351" s="4">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A352" s="8">
+        <v>7</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F352" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A353" s="8">
+        <v>7</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D353" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F353" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A354" s="8">
+        <v>7</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F354" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A355" s="8">
+        <v>7</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D355" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F355" s="4">
+        <v>0.72569444444444453</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A356" s="8">
+        <v>7</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D356" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F356" s="1">
+        <v>0.81944444444444453</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A357" s="8">
+        <v>7</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F357" s="1">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A358" s="8">
+        <v>7</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F358" s="4">
+        <v>0.31597222222222221</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A359" s="8">
+        <v>7</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F359" s="4">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A360" s="8">
+        <v>7</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F360" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A361" s="8">
+        <v>7</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F361" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A362" s="8">
+        <v>7</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F362" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A363" s="8">
+        <v>7</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F363" s="4">
+        <v>0.72569444444444453</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A364" s="8">
+        <v>7</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F364" s="1">
+        <v>0.82638888888888884</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A365" s="7">
+        <v>7</v>
+      </c>
+      <c r="B365" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C365" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D365" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E365" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F365" s="10">
+        <v>0.95486111111111116</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A366" s="8">
+        <v>8</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D366" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F366" s="1">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A367" s="8">
+        <v>8</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D367" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F367" s="1">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A368" s="8">
+        <v>8</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D368" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F368" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A369" s="8">
+        <v>8</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D369" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F369" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A370" s="8">
+        <v>8</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D370" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F370" s="1">
+        <v>0.91666666666666663</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A371" s="8">
+        <v>8</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D371" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F371" s="4">
+        <v>0.2638888888888889</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A372" s="8">
+        <v>8</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F372" s="4">
+        <v>0.2951388888888889</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A373" s="8">
+        <v>8</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F373" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A374" s="8">
+        <v>8</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F374" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A375" s="8">
+        <v>8</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F375" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A376" s="8">
+        <v>8</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D376" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F376" s="4">
+        <v>0.72569444444444453</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A377" s="8">
+        <v>8</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D377" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F377" s="1">
+        <v>0.81944444444444453</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A378" s="8">
+        <v>8</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F378" s="1">
+        <v>0.97569444444444453</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A379" s="8">
+        <v>8</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F379" s="4">
+        <v>0.31597222222222221</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A380" s="8">
+        <v>8</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D380" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F380" s="4">
+        <v>0.3576388888888889</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A381" s="8">
+        <v>8</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D381" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F381" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A382" s="8">
+        <v>8</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D382" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F382" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A383" s="8">
+        <v>8</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F383" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A384" s="8">
+        <v>8</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D384" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F384" s="4">
+        <v>0.72569444444444453</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A385" s="8">
+        <v>8</v>
+      </c>
+      <c r="B385" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C385" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D385" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E385" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F385" s="12">
+        <v>0.82986111111111116</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A386" s="7">
+        <v>8</v>
+      </c>
+      <c r="B386" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C386" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D386" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E386" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F386" s="10">
+        <v>0.96180555555555547</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A387" s="8">
+        <v>9</v>
+      </c>
+      <c r="B387" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C387" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D387" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E387" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F387" s="1">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A388" s="8">
+        <v>9</v>
+      </c>
+      <c r="B388" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C388" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D388" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E388" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F388" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A389" s="8">
+        <v>9</v>
+      </c>
+      <c r="B389" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C389" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D389" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E389" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F389" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A390" s="8">
+        <v>9</v>
+      </c>
+      <c r="B390" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C390" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D390" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E390" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F390" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A391" s="8">
+        <v>9</v>
+      </c>
+      <c r="B391" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C391" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D391" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E391" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F391" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A392" s="8">
+        <v>9</v>
+      </c>
+      <c r="B392" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C392" t="s">
+        <v>105</v>
+      </c>
+      <c r="D392" t="s">
+        <v>111</v>
+      </c>
+      <c r="E392" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F392" s="1">
+        <v>0.86458333333333337</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A393" s="8">
+        <v>9</v>
+      </c>
+      <c r="B393" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C393" t="s">
+        <v>72</v>
+      </c>
+      <c r="D393" t="s">
+        <v>73</v>
+      </c>
+      <c r="E393" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F393" s="1">
+        <v>0.93402777777777779</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A394" s="8">
+        <v>9</v>
+      </c>
+      <c r="B394" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C394" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D394" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E394" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F394" s="1">
+        <v>0.31597222222222221</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A395" s="8">
+        <v>9</v>
+      </c>
+      <c r="B395" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C395" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D395" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E395" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F395" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A396" s="8">
+        <v>9</v>
+      </c>
+      <c r="B396" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C396" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D396" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E396" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F396" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A397" s="8">
+        <v>9</v>
+      </c>
+      <c r="B397" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C397" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D397" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E397" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F397" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A398" s="8">
+        <v>9</v>
+      </c>
+      <c r="B398" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C398" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D398" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E398" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F398" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A399" s="8">
+        <v>9</v>
+      </c>
+      <c r="B399" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C399" t="s">
+        <v>105</v>
+      </c>
+      <c r="D399" t="s">
+        <v>111</v>
+      </c>
+      <c r="E399" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F399" s="1">
+        <v>0.86458333333333337</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A400" s="8">
+        <v>9</v>
+      </c>
+      <c r="B400" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C400" t="s">
+        <v>72</v>
+      </c>
+      <c r="D400" t="s">
+        <v>73</v>
+      </c>
+      <c r="E400" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F400" s="1">
+        <v>0.93055555555555547</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A401" s="8">
+        <v>9</v>
+      </c>
+      <c r="B401" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C401" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D401" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E401" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F401" s="1">
+        <v>0.30902777777777779</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A402" s="8">
+        <v>9</v>
+      </c>
+      <c r="B402" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C402" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D402" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E402" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F402" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A403" s="8">
+        <v>9</v>
+      </c>
+      <c r="B403" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C403" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D403" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E403" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F403" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A404" s="8">
+        <v>9</v>
+      </c>
+      <c r="B404" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C404" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D404" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E404" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F404" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A405" s="8">
+        <v>9</v>
+      </c>
+      <c r="B405" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D405" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E405" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F405" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A406" s="8">
+        <v>9</v>
+      </c>
+      <c r="B406" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C406" t="s">
+        <v>105</v>
+      </c>
+      <c r="D406" t="s">
+        <v>111</v>
+      </c>
+      <c r="E406" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F406" s="1">
+        <v>0.86458333333333337</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A407" s="8">
+        <v>9</v>
+      </c>
+      <c r="B407" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C407" t="s">
+        <v>72</v>
+      </c>
+      <c r="D407" t="s">
+        <v>73</v>
+      </c>
+      <c r="E407" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F407" s="1">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A408" s="8">
+        <v>9</v>
+      </c>
+      <c r="B408" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C408" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D408" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E408" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F408" s="1">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A409" s="8">
+        <v>9</v>
+      </c>
+      <c r="B409" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C409" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D409" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E409" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F409" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A410" s="8">
+        <v>9</v>
+      </c>
+      <c r="B410" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C410" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D410" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E410" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F410" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A411" s="8">
+        <v>9</v>
+      </c>
+      <c r="B411" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C411" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D411" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E411" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F411" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A412" s="8">
+        <v>9</v>
+      </c>
+      <c r="B412" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C412" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D412" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E412" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F412" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A413" s="8">
+        <v>9</v>
+      </c>
+      <c r="B413" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C413" t="s">
+        <v>105</v>
+      </c>
+      <c r="D413" t="s">
+        <v>111</v>
+      </c>
+      <c r="E413" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F413" s="1">
+        <v>0.86458333333333337</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A414" s="8">
+        <v>9</v>
+      </c>
+      <c r="B414" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C414" t="s">
+        <v>72</v>
+      </c>
+      <c r="D414" t="s">
+        <v>73</v>
+      </c>
+      <c r="E414" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F414" s="1">
+        <v>0.92708333333333337</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A415" s="8">
+        <v>9</v>
+      </c>
+      <c r="B415" t="s">
+        <v>91</v>
+      </c>
+      <c r="C415" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D415" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E415" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F415" s="1">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A416" s="8">
+        <v>9</v>
+      </c>
+      <c r="B416" t="s">
+        <v>91</v>
+      </c>
+      <c r="C416" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D416" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E416" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F416" s="1">
+        <v>0.3611111111111111</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A417" s="8">
+        <v>9</v>
+      </c>
+      <c r="B417" t="s">
+        <v>91</v>
+      </c>
+      <c r="C417" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D417" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E417" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F417" s="1">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A418" s="8">
+        <v>9</v>
+      </c>
+      <c r="B418" t="s">
+        <v>91</v>
+      </c>
+      <c r="C418" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D418" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E418" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F418" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A419" s="8">
+        <v>9</v>
+      </c>
+      <c r="B419" t="s">
+        <v>91</v>
+      </c>
+      <c r="C419" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D419" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="E419" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F419" s="1">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A420" s="8">
+        <v>9</v>
+      </c>
+      <c r="B420" t="s">
+        <v>91</v>
+      </c>
+      <c r="C420" t="s">
+        <v>105</v>
+      </c>
+      <c r="D420" t="s">
+        <v>111</v>
+      </c>
+      <c r="E420" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F420" s="1">
+        <v>0.86458333333333337</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A421" s="7">
+        <v>9</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D421" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E421" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F421" s="10">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A422" s="8">
+        <v>10</v>
+      </c>
+      <c r="B422" t="s">
+        <v>114</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D422" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F422" s="4">
+        <v>0.25694444444444448</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A423" s="8">
+        <v>10</v>
+      </c>
+      <c r="B423" t="s">
+        <v>114</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D423" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F423" s="4">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A424" s="8">
+        <v>10</v>
+      </c>
+      <c r="B424" t="s">
+        <v>114</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D424" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F424" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A425" s="8">
+        <v>10</v>
+      </c>
+      <c r="B425" t="s">
+        <v>114</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D425" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F425" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A426" s="8">
+        <v>10</v>
+      </c>
+      <c r="B426" t="s">
+        <v>114</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D426" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F426" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A427" s="8">
+        <v>10</v>
+      </c>
+      <c r="B427" t="s">
+        <v>114</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D427" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F427" s="4">
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A428" s="8">
+        <v>10</v>
+      </c>
+      <c r="B428" t="s">
+        <v>114</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D428" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F428" s="4">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A429" s="8">
+        <v>10</v>
+      </c>
+      <c r="B429" t="s">
+        <v>114</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D429" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F429" s="4">
+        <v>0.93402777777777779</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A430" s="8">
+        <v>10</v>
+      </c>
+      <c r="B430" t="s">
+        <v>114</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D430" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F430" s="1">
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A431" s="8">
+        <v>10</v>
+      </c>
+      <c r="B431" t="s">
+        <v>82</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D431" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F431" s="4">
+        <v>0.36805555555555558</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A432" s="8">
+        <v>10</v>
+      </c>
+      <c r="B432" t="s">
+        <v>82</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D432" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F432" s="1">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A433" s="8">
+        <v>10</v>
+      </c>
+      <c r="B433" t="s">
+        <v>82</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F433" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A434" s="8">
+        <v>10</v>
+      </c>
+      <c r="B434" t="s">
+        <v>82</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D434" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F434" s="1">
+        <v>0.82638888888888884</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A435" s="8">
+        <v>10</v>
+      </c>
+      <c r="B435" t="s">
+        <v>82</v>
+      </c>
+      <c r="C435" t="s">
+        <v>72</v>
+      </c>
+      <c r="D435" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F435" s="1">
+        <v>0.93055555555555547</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A436" s="8">
+        <v>10</v>
+      </c>
+      <c r="B436" t="s">
+        <v>91</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F436" s="4">
+        <v>0.25694444444444448</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A437" s="8">
+        <v>10</v>
+      </c>
+      <c r="B437" t="s">
+        <v>91</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D437" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F437" s="4">
+        <v>0.28472222222222221</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A438" s="8">
+        <v>10</v>
+      </c>
+      <c r="B438" t="s">
+        <v>91</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F438" s="4">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A439" s="8">
+        <v>10</v>
+      </c>
+      <c r="B439" t="s">
+        <v>91</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F439" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A440" s="8">
+        <v>10</v>
+      </c>
+      <c r="B440" t="s">
+        <v>91</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F440" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A441" s="8">
+        <v>10</v>
+      </c>
+      <c r="B441" t="s">
+        <v>91</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F441" s="4">
+        <v>0.78472222222222221</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A442" s="8">
+        <v>10</v>
+      </c>
+      <c r="B442" t="s">
+        <v>91</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D442" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F442" s="4">
+        <v>0.92361111111111116</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A443" s="8">
+        <v>10</v>
+      </c>
+      <c r="B443" t="s">
+        <v>91</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D443" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F443" s="4">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A444" s="7">
+        <v>10</v>
+      </c>
+      <c r="B444" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C444" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D444" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E444" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F444" s="10">
+        <v>6.9444444444444434E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E2:E17 E26:E33 E38:E49">
-    <cfRule type="uniqueValues" dxfId="31" priority="45"/>
+    <cfRule type="uniqueValues" dxfId="51" priority="88"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E232:E261">
-    <cfRule type="uniqueValues" dxfId="30" priority="38"/>
+  <conditionalFormatting sqref="E245:E256">
+    <cfRule type="uniqueValues" dxfId="50" priority="81"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E262:E270">
-    <cfRule type="uniqueValues" dxfId="29" priority="37"/>
+  <conditionalFormatting sqref="E457:E488">
+    <cfRule type="uniqueValues" dxfId="47" priority="73"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E287:E318">
-    <cfRule type="uniqueValues" dxfId="28" priority="36"/>
+  <conditionalFormatting sqref="E489:E497">
+    <cfRule type="uniqueValues" dxfId="46" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E319:E327">
-    <cfRule type="uniqueValues" dxfId="27" priority="35"/>
+  <conditionalFormatting sqref="E514:E545">
+    <cfRule type="uniqueValues" dxfId="45" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E344:E375">
+  <conditionalFormatting sqref="E546:E554">
+    <cfRule type="uniqueValues" dxfId="44" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E571:E602">
+    <cfRule type="uniqueValues" dxfId="43" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E603:E611">
+    <cfRule type="uniqueValues" dxfId="42" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E628:E659">
+    <cfRule type="uniqueValues" dxfId="41" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54:E69 E78:E85 E89:E101">
+    <cfRule type="uniqueValues" dxfId="40" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E105:E112">
+    <cfRule type="uniqueValues" dxfId="39" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E113:E120">
+    <cfRule type="uniqueValues" dxfId="38" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130:E136">
+    <cfRule type="uniqueValues" dxfId="37" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E137:E139">
+    <cfRule type="uniqueValues" dxfId="36" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E144:E156">
+    <cfRule type="uniqueValues" dxfId="35" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E160:E168">
+    <cfRule type="uniqueValues" dxfId="34" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E169:E176">
+    <cfRule type="uniqueValues" dxfId="33" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E185:E189">
+    <cfRule type="uniqueValues" dxfId="32" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E190:E192">
+    <cfRule type="uniqueValues" dxfId="31" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E198:E206">
+    <cfRule type="uniqueValues" dxfId="30" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E207:E214">
+    <cfRule type="uniqueValues" dxfId="29" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E215:E223">
+    <cfRule type="uniqueValues" dxfId="28" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E224:E232">
+    <cfRule type="uniqueValues" dxfId="27" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E243:E244">
     <cfRule type="uniqueValues" dxfId="26" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E376:E384">
+  <conditionalFormatting sqref="E257:E265">
     <cfRule type="uniqueValues" dxfId="25" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E401:E432">
+  <conditionalFormatting sqref="E266:E274">
     <cfRule type="uniqueValues" dxfId="24" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E433:E440">
+  <conditionalFormatting sqref="E275:E276">
     <cfRule type="uniqueValues" dxfId="23" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E457:E488">
+  <conditionalFormatting sqref="E277:E283">
     <cfRule type="uniqueValues" dxfId="22" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E489:E497">
-    <cfRule type="uniqueValues" dxfId="21" priority="27"/>
+  <conditionalFormatting sqref="E284:E285">
+    <cfRule type="uniqueValues" dxfId="21" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E514:E545">
-    <cfRule type="uniqueValues" dxfId="20" priority="26"/>
+  <conditionalFormatting sqref="E286:E292">
+    <cfRule type="uniqueValues" dxfId="20" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E546:E554">
-    <cfRule type="uniqueValues" dxfId="19" priority="25"/>
+  <conditionalFormatting sqref="E293:E307">
+    <cfRule type="uniqueValues" dxfId="19" priority="90"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E571:E602">
-    <cfRule type="uniqueValues" dxfId="18" priority="24"/>
+  <conditionalFormatting sqref="E308:E312">
+    <cfRule type="uniqueValues" dxfId="18" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E603:E611">
-    <cfRule type="uniqueValues" dxfId="17" priority="23"/>
+  <conditionalFormatting sqref="E313:E314">
+    <cfRule type="uniqueValues" dxfId="17" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E628:E659">
-    <cfRule type="uniqueValues" dxfId="16" priority="22"/>
+  <conditionalFormatting sqref="E315:E321">
+    <cfRule type="uniqueValues" dxfId="16" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E54:E69 E78:E85 E89:E101">
+  <conditionalFormatting sqref="E322:E323">
     <cfRule type="uniqueValues" dxfId="15" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E105:E112">
+  <conditionalFormatting sqref="E324:E330">
     <cfRule type="uniqueValues" dxfId="14" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E113:E120">
-    <cfRule type="uniqueValues" dxfId="13" priority="18"/>
+  <conditionalFormatting sqref="E345:E357">
+    <cfRule type="uniqueValues" dxfId="13" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E130:E136">
-    <cfRule type="uniqueValues" dxfId="12" priority="17"/>
+  <conditionalFormatting sqref="E331:E344">
+    <cfRule type="uniqueValues" dxfId="12" priority="92"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E137:E139">
-    <cfRule type="uniqueValues" dxfId="11" priority="14"/>
+  <conditionalFormatting sqref="E358:E365">
+    <cfRule type="uniqueValues" dxfId="11" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E144:E156">
-    <cfRule type="uniqueValues" dxfId="10" priority="13"/>
+  <conditionalFormatting sqref="E366:E378">
+    <cfRule type="uniqueValues" dxfId="10" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E160:E168">
-    <cfRule type="uniqueValues" dxfId="9" priority="12"/>
+  <conditionalFormatting sqref="E379:E393">
+    <cfRule type="uniqueValues" dxfId="9" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E169:E176">
-    <cfRule type="uniqueValues" dxfId="8" priority="11"/>
+  <conditionalFormatting sqref="E394:E400">
+    <cfRule type="uniqueValues" dxfId="8" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E185:E189">
-    <cfRule type="uniqueValues" dxfId="7" priority="46"/>
+  <conditionalFormatting sqref="E401:E407">
+    <cfRule type="uniqueValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E190:E192">
+  <conditionalFormatting sqref="E408:E414">
     <cfRule type="uniqueValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E198:E206">
+  <conditionalFormatting sqref="E415:E421">
     <cfRule type="uniqueValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E207:E214">
+  <conditionalFormatting sqref="E422:E423">
     <cfRule type="uniqueValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E215:E223">
+  <conditionalFormatting sqref="E424:E430">
     <cfRule type="uniqueValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E224 E229:E231">
+  <conditionalFormatting sqref="E431:E435">
     <cfRule type="uniqueValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E225:E228">
+  <conditionalFormatting sqref="E436:E437">
     <cfRule type="uniqueValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E438:E444">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5736,7 +10492,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5812,16 +10568,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>32</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -5829,16 +10585,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="A6" s="7">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>17</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -5846,16 +10602,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="A7" s="7">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>14</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="7">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -5863,16 +10619,16 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="A8" s="7">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -5880,16 +10636,16 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="A9" s="7">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>18</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="3" t="s">
